--- a/Data/Clientes.xlsx
+++ b/Data/Clientes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Proyectos\-Auditoria\Control_pagos_anticipos_CyA\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784C7F38-399D-4700-9B2C-1AEFD86E8B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80613C77-E201-4AE3-ADF5-C8CADA7E29A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20610" yWindow="3090" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Cliente</t>
   </si>
@@ -40,49 +40,19 @@
     <t>Error</t>
   </si>
   <si>
-    <t>CDIMEX SA</t>
-  </si>
-  <si>
-    <t>Rafaela887</t>
-  </si>
-  <si>
     <t>C:\Proyectos\-Auditoria\Control_pagos_anticipos_CyA\Data\Anticipos</t>
   </si>
   <si>
-    <t>EQUIPOS AGROINDUSTRIALES SA</t>
-  </si>
-  <si>
-    <t>Guillermot37</t>
-  </si>
-  <si>
-    <t>ESCOBAR LITORAL SA</t>
-  </si>
-  <si>
-    <t>Imperio2025</t>
-  </si>
-  <si>
-    <t>JIT INDUSTRIAL SA</t>
-  </si>
-  <si>
-    <t>Turc2025diego</t>
-  </si>
-  <si>
-    <t>LZT AGRO SA</t>
-  </si>
-  <si>
-    <t>Lztagro2025</t>
-  </si>
-  <si>
     <t>NATION MOTORS SA</t>
   </si>
   <si>
-    <t>Estudio2024</t>
-  </si>
-  <si>
-    <t>ROBLE BIENES RAICES SA</t>
-  </si>
-  <si>
-    <t>EstudioR2025</t>
+    <t>Estudio2025</t>
+  </si>
+  <si>
+    <t>PACKING BOX SA</t>
+  </si>
+  <si>
+    <t>((#Urquiza##7411))</t>
   </si>
   <si>
     <t xml:space="preserve">SURGENTE MOLINOS SA </t>
@@ -451,20 +421,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="17.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -489,19 +458,19 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>27305018487</v>
+      </c>
+      <c r="C2">
+        <v>30717391264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
         <v>6</v>
-      </c>
-      <c r="B2">
-        <v>20146535349</v>
-      </c>
-      <c r="C2">
-        <v>30711314489</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -509,16 +478,16 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>20165740700</v>
+        <v>20111155500</v>
       </c>
       <c r="C3">
-        <v>30707213899</v>
+        <v>30718452704</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -526,101 +495,16 @@
         <v>11</v>
       </c>
       <c r="B4">
-        <v>20295204681</v>
+        <v>20171140723</v>
       </c>
       <c r="C4">
-        <v>30715417223</v>
+        <v>30711767645</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5">
-        <v>20161700860</v>
-      </c>
-      <c r="C5">
-        <v>30717882306</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>27146539705</v>
-      </c>
-      <c r="C6">
-        <v>33717433349</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7">
-        <v>27305018487</v>
-      </c>
-      <c r="C7">
-        <v>30717391264</v>
-      </c>
-      <c r="D7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>27123041696</v>
-      </c>
-      <c r="C8">
-        <v>30711669163</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9">
-        <v>20171140723</v>
-      </c>
-      <c r="C9">
-        <v>30711767645</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
